--- a/assets/disciplinas/LOB1055.xlsx
+++ b/assets/disciplinas/LOB1055.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EM-8,EA-7,EQD-4,EQN-9</t>
+    <t>EM-8,EQD-4,EQN-6</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOB1055.xlsx
+++ b/assets/disciplinas/LOB1055.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Conscientizar os alunos da importância de uma política de gestão empresarial para assegurar a prevenção de acidentes e doenças do trabalho.</t>
+    <t>8767640 - Eduardo Ferro dos Santos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,18 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8767640 - Eduardo Ferro dos Santos</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1) Introdução a Segurança do Trabalho
-2) Programas de Gerenciamento de Riscos
-3) Metodologias de Identificação e Avaliação de Riscos.
-4) Estratégias de Prevenção e Controle de Riscos.
-5) Organização de Serviços de Segurança do Trabalho
-6) Estudos de casos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -99,14 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Introdução a Segurança do Trabalho: Conceitos de acidentes de trabalho, doenças e do papel do engenheiro na segurança do trabalho.
-2) Programas de Gerenciamento de Riscos: Sistemas de gestão em segurança do trabalho, comprometimento e participação gerencial, formalização dos programas, participação dos funcionários, avaliação de programas, coleta e análise de informações.
-3) Metodologias de Identificação e Avaliação de Riscos: Identificação e avaliação de riscos: identificação do risco nas instalações, métodos e técnicas, avaliação da exposição dos funcionários, capacitação ocupacional, acompanhamento de programas e instrumentação aplicada.
-4) Estratégias de Prevenção e Controle de Riscos Revisão do projeto ou modificação nas instalações e nos processos, procedimentos para atividades perigosas, equipamentos de proteção à segurança e à saúde, programa de manutenção preventiva e de ordem e limpeza, investigação de acidentes, segurança das dependências e das áreas restritas, emergências.
-5) Organização de Serviços e da Segurança do Trabalho: Normas regulamentadoras.
-6) Estudos de casos: Aplicações Práticas.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -116,35 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Duas Notas  N1  1º bimestre e N2  2º bimestre. A composição das N fica a critério do docente.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = (N1+ N2)/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/ 2 , onde PR é uma prova de recuperação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ABIQUIM . Comissões Técnicas; Guia de implantação saúde e segurança do trabalhador. São Paulo: 1994. 114p.
-FUNDACENTRO. Curso de engenharia de segurança do trabalho. São Paulo, FUNDACENTRO: 1981. 6v. il.
-FUNDACENTRO. Guia para rotulagem preventiva de produtos químicos perigosos. São Pulo, FUNDACENTRO: 1980. 76p.
-Hirata, M. H. at all; Manual de biossegurança. Ed. Manole Barueri-SP: 2008. 496p.
-Normas regulamentadoras.&lt; http://portal.mte.gov.br/legislacao/normas-regulamentadoras-1.htm&gt;
-Perez, R. C.; Emergências tecnológicas. Crearte Ed. - Sorocaba SP: 2008. 300p.
-Paoleschi, B.; CIPA: guia prático de segurança do trabalho. Ed. Érica  São Paulo: 2009. 128p.
-Soares, R. A.; Manutenção preventiva. CNI: 1980. 59p.
-Sax, N. I. ; Lewis, R. J. ; Dangerous properties of industrial materials. Van Nostrand Reinhold  USA:1989. 3527p.
-Mattos, A. de O. (orgs.)- Higiene e segurança do trabalho. Elsevier Ed.  R.J.:2011. 408p. 
-Vincoli, J. W.; Risk management for hazardous chemicals. CRC Press  USA:1997. 3040P.</t>
   </si>
 </sst>
 </file>
@@ -500,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,93 +596,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1055.xlsx
+++ b/assets/disciplinas/LOB1055.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,27 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Conscientizar os alunos da importância de uma política de gestão empresarial para assegurar a prevenção de acidentes e doenças do trabalho.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8767640 - Eduardo Ferro dos Santos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1) Introdução a Segurança do Trabalho
+2) Programas de Gerenciamento de Riscos
+3) Metodologias de Identificação e Avaliação de Riscos.
+4) Estratégias de Prevenção e Controle de Riscos.
+5) Organização de Serviços de Segurança do Trabalho
+6) Estudos de casos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +99,14 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Introdução a Segurança do Trabalho: Conceitos de acidentes de trabalho, doenças e do papel do engenheiro na segurança do trabalho.
+2) Programas de Gerenciamento de Riscos: Sistemas de gestão em segurança do trabalho, comprometimento e participação gerencial, formalização dos programas, participação dos funcionários, avaliação de programas, coleta e análise de informações.
+3) Metodologias de Identificação e Avaliação de Riscos: Identificação e avaliação de riscos: identificação do risco nas instalações, métodos e técnicas, avaliação da exposição dos funcionários, capacitação ocupacional, acompanhamento de programas e instrumentação aplicada.
+4) Estratégias de Prevenção e Controle de Riscos Revisão do projeto ou modificação nas instalações e nos processos, procedimentos para atividades perigosas, equipamentos de proteção à segurança e à saúde, programa de manutenção preventiva e de ordem e limpeza, investigação de acidentes, segurança das dependências e das áreas restritas, emergências.
+5) Organização de Serviços e da Segurança do Trabalho: Normas regulamentadoras.
+6) Estudos de casos: Aplicações Práticas.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +116,35 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Duas Notas  N1  1º bimestre e N2  2º bimestre. A composição das N fica a critério do docente.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas Notas  N1  1º bimestre e N2  2º bimestre. A composição das N fica a critério do docente.</t>
+    <t>MF = (N1+ N2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = (N1+ N2)/2</t>
+    <t>NF = (MF + PR)/ 2 , onde PR é uma prova de recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/ 2 , onde PR é uma prova de recuperação</t>
+    <t>ABIQUIM . Comissões Técnicas; Guia de implantação saúde e segurança do trabalhador. São Paulo: 1994. 114p.
+FUNDACENTRO. Curso de engenharia de segurança do trabalho. São Paulo, FUNDACENTRO: 1981. 6v. il.
+FUNDACENTRO. Guia para rotulagem preventiva de produtos químicos perigosos. São Pulo, FUNDACENTRO: 1980. 76p.
+Hirata, M. H. at all; Manual de biossegurança. Ed. Manole Barueri-SP: 2008. 496p.
+Normas regulamentadoras.&lt; http://portal.mte.gov.br/legislacao/normas-regulamentadoras-1.htm&gt;
+Perez, R. C.; Emergências tecnológicas. Crearte Ed. - Sorocaba SP: 2008. 300p.
+Paoleschi, B.; CIPA: guia prático de segurança do trabalho. Ed. Érica  São Paulo: 2009. 128p.
+Soares, R. A.; Manutenção preventiva. CNI: 1980. 59p.
+Sax, N. I. ; Lewis, R. J. ; Dangerous properties of industrial materials. Van Nostrand Reinhold  USA:1989. 3527p.
+Mattos, A. de O. (orgs.)- Higiene e segurança do trabalho. Elsevier Ed.  R.J.:2011. 408p. 
+Vincoli, J. W.; Risk management for hazardous chemicals. CRC Press  USA:1997. 3040P.</t>
   </si>
 </sst>
 </file>
@@ -471,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -596,85 +625,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
